--- a/TextAnalytics/sample-data/ReportedIssues.xlsx
+++ b/TextAnalytics/sample-data/ReportedIssues.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aahil\Code\work\cognitive-services-sample-data-files\TextAnalytics\sample-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA80DC2-99D3-4186-8388-F26727E069CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F7F1497-5FA3-423D-A5FE-AA9046A11C8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4695" yWindow="345" windowWidth="24495" windowHeight="9975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,34 +53,34 @@
     <t>__PowerAppsId__</t>
   </si>
   <si>
-    <t>I am calling to report a plumbing issue in my apartment. I am in 2A. My name is Kristina Todorovic. My phone number is 4255551212.</t>
-  </si>
-  <si>
     <t>0LGFSdXX8hs</t>
   </si>
   <si>
-    <t>I am calling to report a problem with our electricity. My name is Berend Wolf. And my phone number is 3055551212.</t>
-  </si>
-  <si>
     <t>fQrtowR-B3M</t>
   </si>
   <si>
-    <t>I am calling to report an issue with our washer. I am in apartment 5A. My phone number is 2065551212. I am Vlad Eugen.</t>
-  </si>
-  <si>
     <t>W6HeCAQcY40</t>
   </si>
   <si>
-    <t>My name is Weber Immanuel. I am in 1B. My garage door is not opening. Please call me at 3605551212.</t>
-  </si>
-  <si>
     <t>taKOEZl6Hck</t>
   </si>
   <si>
-    <t>My name is Roberto Castiglione. I am in 2B. My heater is not working. Please call me at 6045551212.</t>
-  </si>
-  <si>
     <t>GTwQbykvkvM</t>
+  </si>
+  <si>
+    <t>I am calling to report a plumbing issue in my apartment. I am in 2A. My name is Gabriel Diaz. My phone number is 425-555-0122.</t>
+  </si>
+  <si>
+    <t>I am calling to report a problem with our electricity. My name is Maya Robinson. And my phone number is 305-555-0122.</t>
+  </si>
+  <si>
+    <t>I am calling to report an issue with our washer. I am in apartment 5A. My phone number is 206-555-0122. I am Anthony Ivanov.</t>
+  </si>
+  <si>
+    <t>My name is Monica Thomson. I am in 1B. My garage door is not opening. Please call me at 360-555-0122.</t>
+  </si>
+  <si>
+    <t>My name is Avery Howard. I am in 2B. My heater is not working. Please call me at 604-555-0122.</t>
   </si>
 </sst>
 </file>
@@ -96,15 +96,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -112,18 +118,52 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -141,7 +181,7 @@
   <autoFilter ref="A1:F6" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Issue"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Description"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Description" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="PersonName"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="PhoneNumber"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="IssueType"/>
@@ -414,7 +454,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="1" width="525" row="3">
+  <wetp:taskpane dockstate="right" visibility="0" width="441" row="4">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
 </wetp:taskpanes>
@@ -444,7 +484,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -481,60 +521,60 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
+      <c r="B3" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
+      <c r="B5" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>14</v>
+      <c r="B6" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -556,6 +596,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EA18E68DD315FA4D8A60CB68B594396A" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4c11903351cae27c810a24dba2ef2c4c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns3="9e44e905-9a29-48a7-81e3-4d0679aa2319" xmlns:ns4="347148ec-f3ed-4d19-b36b-18db20af1ee1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a9daf009ad271b67d23aaa5841757bde" ns1:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -791,7 +840,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -800,16 +849,15 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{196DBB3C-F3CC-47BE-8C4B-99508603C609}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{917DFCBA-AFDC-475B-BB23-0282D1D79F78}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -829,7 +877,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D1C84E0-2863-4FBB-911B-8CD02943A9FB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -837,12 +885,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{196DBB3C-F3CC-47BE-8C4B-99508603C609}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>